--- a/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57_R-Provincia-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>87446</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72209</v>
+        <v>72348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>104738</v>
+        <v>103436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2986244063351069</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2465876411405608</v>
+        <v>0.2470655957069572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3576754706547891</v>
+        <v>0.3532271273017665</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -763,19 +763,19 @@
         <v>89665</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73531</v>
+        <v>75007</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>105606</v>
+        <v>106428</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3105781161342441</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.254694163216316</v>
+        <v>0.2598069510884206</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3657950194805635</v>
+        <v>0.368641589716084</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>165</v>
@@ -784,19 +784,19 @@
         <v>177111</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>154251</v>
+        <v>155417</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198660</v>
+        <v>201564</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3045588389462808</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2652485123718254</v>
+        <v>0.2672541896459016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3416141437610308</v>
+        <v>0.3466082368247287</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>205385</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>188093</v>
+        <v>189395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>220622</v>
+        <v>220483</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7013755936648931</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6423245293452109</v>
+        <v>0.6467728726982335</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7534123588594392</v>
+        <v>0.7529344042930428</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -834,19 +834,19 @@
         <v>199038</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>183097</v>
+        <v>182275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>215172</v>
+        <v>213696</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6894218838657559</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6342049805194364</v>
+        <v>0.6313584102839156</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7453058367836839</v>
+        <v>0.7401930489115792</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>377</v>
@@ -855,19 +855,19 @@
         <v>404423</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>382874</v>
+        <v>379970</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>427283</v>
+        <v>426117</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6954411610537191</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6583858562389693</v>
+        <v>0.6533917631752709</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7347514876281745</v>
+        <v>0.7327458103540984</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>71924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55759</v>
+        <v>57417</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87086</v>
+        <v>88778</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1440296278975442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1116581923265928</v>
+        <v>0.1149792369779263</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1743929623536223</v>
+        <v>0.177780565637717</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -980,19 +980,19 @@
         <v>77270</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61327</v>
+        <v>61556</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>95670</v>
+        <v>94487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.148262436205839</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1176718091247673</v>
+        <v>0.1181099707219512</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1835664858551784</v>
+        <v>0.1812963788376276</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>137</v>
@@ -1001,19 +1001,19 @@
         <v>149194</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>123512</v>
+        <v>127675</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>172359</v>
+        <v>172390</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1461912484956381</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1210262077643185</v>
+        <v>0.1251048101341405</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.168889889457818</v>
+        <v>0.1689196072606342</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>427445</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>412283</v>
+        <v>410591</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>443610</v>
+        <v>441952</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8559703721024557</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8256070376463779</v>
+        <v>0.8222194343622836</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8883418076734073</v>
+        <v>0.885020763022074</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>414</v>
@@ -1051,19 +1051,19 @@
         <v>443903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>425503</v>
+        <v>426686</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459846</v>
+        <v>459617</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8517375637941611</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8164335141448216</v>
+        <v>0.8187036211623717</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8823281908752324</v>
+        <v>0.8818900292780487</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>817</v>
@@ -1072,19 +1072,19 @@
         <v>871348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>848183</v>
+        <v>848152</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>897030</v>
+        <v>892867</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8538087515043619</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8311101105421821</v>
+        <v>0.8310803927393658</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8789737922356816</v>
+        <v>0.8748951898658595</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>26891</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>18763</v>
+        <v>18402</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37335</v>
+        <v>38187</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08464305545676669</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05905976752713585</v>
+        <v>0.05792293517912618</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1175151861641047</v>
+        <v>0.1201994648690652</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -1197,19 +1197,19 @@
         <v>52065</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39722</v>
+        <v>38832</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66483</v>
+        <v>66996</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1548124292934216</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.118113075138248</v>
+        <v>0.1154648377171622</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1976849687573923</v>
+        <v>0.1992104197962431</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -1218,19 +1218,19 @@
         <v>78956</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62913</v>
+        <v>62335</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>97327</v>
+        <v>96918</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.120726040126367</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09619666231628665</v>
+        <v>0.09531257165335609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1488156661989398</v>
+        <v>0.1481902902439565</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>290809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>280365</v>
+        <v>279513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298937</v>
+        <v>299298</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9153569445432334</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8824848138358946</v>
+        <v>0.879800535130935</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.940940232472864</v>
+        <v>0.9420770648208739</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>286</v>
@@ -1268,19 +1268,19 @@
         <v>284244</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269826</v>
+        <v>269313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>296587</v>
+        <v>297477</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8451875707065784</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8023150312426076</v>
+        <v>0.8007895802037568</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.881886924861752</v>
+        <v>0.8845351622828371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>590</v>
@@ -1289,19 +1289,19 @@
         <v>575053</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>556682</v>
+        <v>557091</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>591096</v>
+        <v>591674</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8792739598736331</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8511843338010602</v>
+        <v>0.8518097097560435</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.903803337683713</v>
+        <v>0.904687428346644</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>58247</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>44247</v>
+        <v>45993</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72753</v>
+        <v>75404</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1587382082224588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1205840497409415</v>
+        <v>0.1253425608055521</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.198268827396071</v>
+        <v>0.2054948514635222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>93</v>
@@ -1414,19 +1414,19 @@
         <v>107793</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89601</v>
+        <v>89649</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128144</v>
+        <v>126430</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2800736714179067</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2328078130741172</v>
+        <v>0.2329315668732643</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.332952243522287</v>
+        <v>0.3284990411094392</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>148</v>
@@ -1435,19 +1435,19 @@
         <v>166040</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>142659</v>
+        <v>142156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>189958</v>
+        <v>189338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2208530336782303</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1897537096645678</v>
+        <v>0.1890845352443958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2526671842710901</v>
+        <v>0.2518417802017387</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>308693</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>294187</v>
+        <v>291536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322693</v>
+        <v>320947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8412617917775412</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.801731172603929</v>
+        <v>0.7945051485364777</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8794159502590585</v>
+        <v>0.8746574391944478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>263</v>
@@ -1485,19 +1485,19 @@
         <v>277080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256729</v>
+        <v>258443</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>295272</v>
+        <v>295224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7199263285820933</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6670477564777131</v>
+        <v>0.6715009588905606</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7671921869258829</v>
+        <v>0.7670684331267357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>559</v>
@@ -1506,19 +1506,19 @@
         <v>585773</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>561855</v>
+        <v>562475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>609154</v>
+        <v>609657</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7791469663217697</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7473328157289097</v>
+        <v>0.7481582197982607</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8102462903354321</v>
+        <v>0.8109154647556041</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>72523</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58952</v>
+        <v>59143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86764</v>
+        <v>85530</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3433526836315933</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2791025489157803</v>
+        <v>0.2800055559736602</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4107750826870304</v>
+        <v>0.4049304820878432</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -1631,19 +1631,19 @@
         <v>90729</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>75975</v>
+        <v>76565</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105659</v>
+        <v>104179</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4150703492587005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3475739446567334</v>
+        <v>0.3502730581330349</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4833748824129734</v>
+        <v>0.4766018806892314</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>165</v>
@@ -1652,19 +1652,19 @@
         <v>163252</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>143774</v>
+        <v>144748</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>182962</v>
+        <v>183243</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3798260611395523</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3345077027259147</v>
+        <v>0.3367745195515124</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4256836332317631</v>
+        <v>0.4263370815831736</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>138698</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>124457</v>
+        <v>125691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>152269</v>
+        <v>152078</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6566473163684067</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5892249173129694</v>
+        <v>0.5950695179121569</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7208974510842195</v>
+        <v>0.7199944440263397</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>133</v>
@@ -1702,19 +1702,19 @@
         <v>127858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>112928</v>
+        <v>114408</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>142612</v>
+        <v>142022</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5849296507412995</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5166251175870268</v>
+        <v>0.5233981193107686</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6524260553432667</v>
+        <v>0.6497269418669651</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>270</v>
@@ -1723,19 +1723,19 @@
         <v>266556</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>246846</v>
+        <v>246565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>286034</v>
+        <v>285060</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6201739388604477</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5743163667682369</v>
+        <v>0.5736629184168264</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6654922972740853</v>
+        <v>0.6632254804484872</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>48915</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>36161</v>
+        <v>36274</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63391</v>
+        <v>61819</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1859006223084938</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1374287541528758</v>
+        <v>0.1378580489330876</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2409192777420523</v>
+        <v>0.2349450361954458</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -1848,19 +1848,19 @@
         <v>58729</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>46198</v>
+        <v>45364</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73147</v>
+        <v>73340</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2158266794925419</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1697744482715243</v>
+        <v>0.1667105102319629</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.268811890421426</v>
+        <v>0.2695219556970818</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>102</v>
@@ -1869,19 +1869,19 @@
         <v>107644</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>90391</v>
+        <v>90145</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>128237</v>
+        <v>127322</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2011149620374761</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1688803204661109</v>
+        <v>0.1684217148274383</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2395889619146038</v>
+        <v>0.2378802841578797</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>214208</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>199732</v>
+        <v>201304</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>226962</v>
+        <v>226849</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8140993776915062</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7590807222579478</v>
+        <v>0.7650549638045545</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8625712458471245</v>
+        <v>0.8621419510669128</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -1919,19 +1919,19 @@
         <v>213384</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198966</v>
+        <v>198773</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>225915</v>
+        <v>226749</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7841733205074581</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7311881095785742</v>
+        <v>0.7304780443029184</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8302255517284759</v>
+        <v>0.8332894897680374</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>419</v>
@@ -1940,19 +1940,19 @@
         <v>427592</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>406999</v>
+        <v>407914</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>444845</v>
+        <v>445091</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7988850379625239</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7604110380853961</v>
+        <v>0.7621197158421201</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8311196795338891</v>
+        <v>0.8315782851725617</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>106334</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>87082</v>
+        <v>87808</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>125942</v>
+        <v>126912</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1633476931819774</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.13377314827102</v>
+        <v>0.1348892040252459</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1934693515849601</v>
+        <v>0.1949589554483161</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>126</v>
@@ -2065,19 +2065,19 @@
         <v>141647</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>122224</v>
+        <v>120978</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>164516</v>
+        <v>165805</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2076345532490792</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1791634717591794</v>
+        <v>0.1773378569533395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2411584585358812</v>
+        <v>0.2430475165752468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>221</v>
@@ -2086,19 +2086,19 @@
         <v>247980</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>222038</v>
+        <v>220007</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>280514</v>
+        <v>281732</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1860097787068849</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1665507389702297</v>
+        <v>0.1650273031501265</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2104132718934314</v>
+        <v>0.2113271201469547</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>544632</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>525024</v>
+        <v>524054</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>563884</v>
+        <v>563158</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8366523068180226</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8065306484150401</v>
+        <v>0.8050410445516839</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.86622685172898</v>
+        <v>0.8651107959747542</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>512</v>
@@ -2136,19 +2136,19 @@
         <v>540545</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>517676</v>
+        <v>516387</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>559968</v>
+        <v>561214</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7923654467509208</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7588415414641189</v>
+        <v>0.7569524834247532</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8208365282408207</v>
+        <v>0.8226621430466605</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>992</v>
@@ -2157,19 +2157,19 @@
         <v>1085178</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1052644</v>
+        <v>1051426</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1111120</v>
+        <v>1113151</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.813990221293115</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7895867281065685</v>
+        <v>0.7886728798530451</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8334492610297701</v>
+        <v>0.8349726968498735</v>
       </c>
     </row>
     <row r="24">
@@ -2261,19 +2261,19 @@
         <v>153812</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133267</v>
+        <v>132722</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>176436</v>
+        <v>177945</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1975542543381447</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1711658465688654</v>
+        <v>0.1704658736155737</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2266122464960872</v>
+        <v>0.2285501095035038</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>182</v>
@@ -2282,19 +2282,19 @@
         <v>210006</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185633</v>
+        <v>181930</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>238208</v>
+        <v>238716</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2548136809103316</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2252404651535602</v>
+        <v>0.220748167713296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2890338170075885</v>
+        <v>0.2896491677864619</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>334</v>
@@ -2303,19 +2303,19 @@
         <v>363818</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>329243</v>
+        <v>330650</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>400512</v>
+        <v>398222</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2269980028132385</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2054257203946655</v>
+        <v>0.2063035663419156</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2498928027449022</v>
+        <v>0.2484639380945524</v>
       </c>
     </row>
     <row r="26">
@@ -2332,19 +2332,19 @@
         <v>624771</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>602147</v>
+        <v>600638</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>645316</v>
+        <v>645861</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8024457456618553</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7733877535039131</v>
+        <v>0.7714498904964963</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8288341534311346</v>
+        <v>0.8295341263844268</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>571</v>
@@ -2353,19 +2353,19 @@
         <v>614148</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>585946</v>
+        <v>585438</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>638521</v>
+        <v>642224</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7451863190896684</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7109661829924117</v>
+        <v>0.7103508322135383</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7747595348464397</v>
+        <v>0.7792518322867042</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1169</v>
@@ -2374,19 +2374,19 @@
         <v>1238919</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1202225</v>
+        <v>1204515</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1273494</v>
+        <v>1272087</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7730019971867615</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7501071972550978</v>
+        <v>0.7515360619054476</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7945742796053352</v>
+        <v>0.7936964336580845</v>
       </c>
     </row>
     <row r="27">
@@ -2478,19 +2478,19 @@
         <v>626093</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>577116</v>
+        <v>584807</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>670654</v>
+        <v>674422</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1851944719938939</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1707073336214035</v>
+        <v>0.1729822099273633</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1983752476282493</v>
+        <v>0.1994897947502547</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>744</v>
@@ -2499,19 +2499,19 @@
         <v>827903</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>775160</v>
+        <v>778765</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>882754</v>
+        <v>879791</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2346595739920796</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.219710047699913</v>
+        <v>0.2207318029974446</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.250206332246964</v>
+        <v>0.2493665405068524</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1348</v>
@@ -2520,19 +2520,19 @@
         <v>1453996</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1384900</v>
+        <v>1382698</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1520897</v>
+        <v>1523606</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2104545862147991</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2004534506469918</v>
+        <v>0.2001346877096224</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2201378742600735</v>
+        <v>0.2205299945812986</v>
       </c>
     </row>
     <row r="29">
@@ -2549,19 +2549,19 @@
         <v>2754640</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2710079</v>
+        <v>2706311</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2803617</v>
+        <v>2795926</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8148055280061061</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.8016247523717506</v>
+        <v>0.8005102052497453</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8292926663785961</v>
+        <v>0.8270177900726366</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2579</v>
@@ -2570,19 +2570,19 @@
         <v>2700201</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2645350</v>
+        <v>2648313</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2752944</v>
+        <v>2749339</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7653404260079204</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7497936677530361</v>
+        <v>0.7506334594931477</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7802899523000872</v>
+        <v>0.7792681970025555</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5193</v>
@@ -2591,19 +2591,19 @@
         <v>5454841</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5387940</v>
+        <v>5385231</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5523937</v>
+        <v>5526139</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7895454137852009</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7798621257399264</v>
+        <v>0.7794700054187014</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7995465493530082</v>
+        <v>0.7998653122903776</v>
       </c>
     </row>
     <row r="30">
@@ -2939,19 +2939,19 @@
         <v>17804</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11597</v>
+        <v>11569</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27645</v>
+        <v>27181</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05583781646336868</v>
+        <v>0.05583781646336869</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03637182713990501</v>
+        <v>0.03628377400422864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08670314120282695</v>
+        <v>0.08524745672629204</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -2960,19 +2960,19 @@
         <v>20244</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15064</v>
+        <v>14669</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27255</v>
+        <v>27260</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06405245419698376</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04766082862127836</v>
+        <v>0.04641281369608217</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08623257440248847</v>
+        <v>0.08624873584903914</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>62</v>
@@ -2981,19 +2981,19 @@
         <v>38048</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29574</v>
+        <v>29276</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49116</v>
+        <v>49550</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05992712101301391</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04658000028522954</v>
+        <v>0.04611063684472878</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07736021586595415</v>
+        <v>0.07804296130968455</v>
       </c>
     </row>
     <row r="5">
@@ -3010,19 +3010,19 @@
         <v>301041</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>291200</v>
+        <v>291664</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>307248</v>
+        <v>307276</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9441621835366312</v>
+        <v>0.9441621835366314</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9132968587971727</v>
+        <v>0.9147525432737078</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9636281728600949</v>
+        <v>0.9637162259957713</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>497</v>
@@ -3031,19 +3031,19 @@
         <v>295817</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>288806</v>
+        <v>288801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>300997</v>
+        <v>301392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9359475458030162</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9137674255975115</v>
+        <v>0.913751264150961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9523391713787215</v>
+        <v>0.9535871863039179</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>807</v>
@@ -3052,19 +3052,19 @@
         <v>596858</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>585790</v>
+        <v>585356</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>605332</v>
+        <v>605630</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.940072878986986</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9226397841340457</v>
+        <v>0.9219570386903155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9534199997147704</v>
+        <v>0.9538893631552711</v>
       </c>
     </row>
     <row r="6">
@@ -3156,19 +3156,19 @@
         <v>29292</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>18264</v>
+        <v>18736</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43317</v>
+        <v>47584</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05519968965298441</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0344179026824813</v>
+        <v>0.0353078483444565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08163109915747009</v>
+        <v>0.08967151586863072</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -3177,19 +3177,19 @@
         <v>32634</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>24297</v>
+        <v>24813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42128</v>
+        <v>42712</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.06013988292664654</v>
+        <v>0.06013988292664652</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04477524831397164</v>
+        <v>0.04572694410672668</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07763636447742424</v>
+        <v>0.07871153548214203</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>71</v>
@@ -3198,19 +3198,19 @@
         <v>61926</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47886</v>
+        <v>48984</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80222</v>
+        <v>80408</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05769738235273261</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04461600986414723</v>
+        <v>0.04563948665564344</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07474474544499968</v>
+        <v>0.07491801851176157</v>
       </c>
     </row>
     <row r="8">
@@ -3227,19 +3227,19 @@
         <v>501355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>487330</v>
+        <v>483063</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>512383</v>
+        <v>511911</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9448003103470156</v>
+        <v>0.9448003103470155</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9183689008425299</v>
+        <v>0.9103284841313688</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9655820973175189</v>
+        <v>0.9646921516555435</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>663</v>
@@ -3248,19 +3248,19 @@
         <v>510004</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>500510</v>
+        <v>499926</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>518341</v>
+        <v>517825</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9398601170733536</v>
+        <v>0.9398601170733534</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9223636355225762</v>
+        <v>0.921288464517858</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9552247516860288</v>
+        <v>0.9542730558932734</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1023</v>
@@ -3269,19 +3269,19 @@
         <v>1011359</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>993063</v>
+        <v>992877</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1025399</v>
+        <v>1024301</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9423026176472674</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9252552545550005</v>
+        <v>0.9250819814882388</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9553839901358531</v>
+        <v>0.954360513344357</v>
       </c>
     </row>
     <row r="9">
@@ -3373,19 +3373,19 @@
         <v>64004</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>52010</v>
+        <v>52220</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>76019</v>
+        <v>78465</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2036447768850331</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1654850640875192</v>
+        <v>0.1661506332333292</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2418738037312613</v>
+        <v>0.2496583975054417</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>127</v>
@@ -3394,19 +3394,19 @@
         <v>72356</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61812</v>
+        <v>61478</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>84806</v>
+        <v>83686</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2039609153788725</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1742397191468715</v>
+        <v>0.1732987157115615</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2390557412351132</v>
+        <v>0.2358981814759247</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>209</v>
@@ -3415,19 +3415,19 @@
         <v>136359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118919</v>
+        <v>119677</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153286</v>
+        <v>155281</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2038124058641291</v>
+        <v>0.203812405864129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.177745364600761</v>
+        <v>0.1788771222886826</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.229111318148973</v>
+        <v>0.2320944046241399</v>
       </c>
     </row>
     <row r="11">
@@ -3444,19 +3444,19 @@
         <v>250287</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>238272</v>
+        <v>235826</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262281</v>
+        <v>262071</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7963552231149668</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7581261962687389</v>
+        <v>0.7503416024945584</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8345149359124806</v>
+        <v>0.833849366766671</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>406</v>
@@ -3465,19 +3465,19 @@
         <v>282397</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>269947</v>
+        <v>271067</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>292941</v>
+        <v>293275</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7960390846211274</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7609442587648864</v>
+        <v>0.7641018185240753</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8257602808531285</v>
+        <v>0.8267012842884384</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>681</v>
@@ -3486,19 +3486,19 @@
         <v>532685</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>515758</v>
+        <v>513763</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>550125</v>
+        <v>549367</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7961875941358708</v>
+        <v>0.7961875941358709</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7708886818510271</v>
+        <v>0.76790559537586</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8222546353992389</v>
+        <v>0.8211228777113175</v>
       </c>
     </row>
     <row r="12">
@@ -3590,19 +3590,19 @@
         <v>43402</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>29820</v>
+        <v>30670</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>60803</v>
+        <v>58844</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1187915587666825</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08161552693207517</v>
+        <v>0.08394254210781925</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1664175058418574</v>
+        <v>0.1610536134266874</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -3611,19 +3611,19 @@
         <v>51336</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40423</v>
+        <v>41352</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67876</v>
+        <v>65454</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.1252445718976005</v>
+        <v>0.1252445718976006</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09861831452290601</v>
+        <v>0.1008867974502686</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1655954958510531</v>
+        <v>0.1596883109369963</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>121</v>
@@ -3632,19 +3632,19 @@
         <v>94739</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77083</v>
+        <v>77142</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>116425</v>
+        <v>115881</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.122203364329501</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09942946500651377</v>
+        <v>0.0995055746047282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1501764046815983</v>
+        <v>0.1494751855164839</v>
       </c>
     </row>
     <row r="14">
@@ -3661,19 +3661,19 @@
         <v>321964</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>304563</v>
+        <v>306522</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>335546</v>
+        <v>334696</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8812084412333173</v>
+        <v>0.8812084412333175</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8335824941581422</v>
+        <v>0.8389463865733123</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.918384473067924</v>
+        <v>0.9160574578921805</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>495</v>
@@ -3682,19 +3682,19 @@
         <v>358553</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>342013</v>
+        <v>344435</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369466</v>
+        <v>368537</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8747554281023995</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8344045041489468</v>
+        <v>0.8403116890630037</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.901381685477094</v>
+        <v>0.8991132025497314</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>738</v>
@@ -3703,19 +3703,19 @@
         <v>680515</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>658829</v>
+        <v>659373</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>698171</v>
+        <v>698112</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8777966356704989</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8498235953184017</v>
+        <v>0.850524814483516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9005705349934863</v>
+        <v>0.9004944253952717</v>
       </c>
     </row>
     <row r="15">
@@ -3807,19 +3807,19 @@
         <v>14507</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9362</v>
+        <v>9478</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21378</v>
+        <v>21791</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07053546726941123</v>
+        <v>0.07053546726941122</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04552046369638535</v>
+        <v>0.04608399923124327</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1039453857643774</v>
+        <v>0.1059514659264765</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -3828,19 +3828,19 @@
         <v>19496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14125</v>
+        <v>14717</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25369</v>
+        <v>25357</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.08611512906645245</v>
+        <v>0.08611512906645248</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0623925062937981</v>
+        <v>0.06500877741363806</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1120581536533486</v>
+        <v>0.1120058352971274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>71</v>
@@ -3849,19 +3849,19 @@
         <v>34002</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26390</v>
+        <v>27040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42464</v>
+        <v>42362</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.07869898813351012</v>
+        <v>0.07869898813351013</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06107967242341362</v>
+        <v>0.06258359649797425</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09828260047029887</v>
+        <v>0.09804719062377276</v>
       </c>
     </row>
     <row r="17">
@@ -3878,19 +3878,19 @@
         <v>191158</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184287</v>
+        <v>183874</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196303</v>
+        <v>196187</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9294645327305887</v>
+        <v>0.9294645327305888</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8960546142356225</v>
+        <v>0.8940485340735234</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9544795363036146</v>
+        <v>0.9539160007687567</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>442</v>
@@ -3899,19 +3899,19 @@
         <v>206895</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>201022</v>
+        <v>201034</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>212266</v>
+        <v>211674</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9138848709335473</v>
+        <v>0.9138848709335474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8879418463466515</v>
+        <v>0.8879941647028727</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.937607493706202</v>
+        <v>0.9349912225863619</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>698</v>
@@ -3920,19 +3920,19 @@
         <v>398054</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>389592</v>
+        <v>389694</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>405666</v>
+        <v>405016</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9213010118664898</v>
+        <v>0.9213010118664899</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9017173995297013</v>
+        <v>0.9019528093762273</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9389203275765865</v>
+        <v>0.9374164035020258</v>
       </c>
     </row>
     <row r="18">
@@ -4024,19 +4024,19 @@
         <v>60348</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49059</v>
+        <v>49415</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>71985</v>
+        <v>72605</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2229255676053776</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1812262535970985</v>
+        <v>0.1825418467556807</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2659138540241937</v>
+        <v>0.2682040332643998</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>134</v>
@@ -4045,19 +4045,19 @@
         <v>60491</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>51260</v>
+        <v>50425</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>70798</v>
+        <v>70099</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2296215557251798</v>
+        <v>0.2296215557251797</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1945822031179315</v>
+        <v>0.1914119409759036</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2687482815166472</v>
+        <v>0.2660938642766398</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>233</v>
@@ -4066,19 +4066,19 @@
         <v>120839</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>106852</v>
+        <v>106423</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>135929</v>
+        <v>137225</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2262279958968048</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2000423658626792</v>
+        <v>0.1992391120163947</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2544792860407222</v>
+        <v>0.2569056186009901</v>
       </c>
     </row>
     <row r="20">
@@ -4095,19 +4095,19 @@
         <v>210359</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198722</v>
+        <v>198102</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>221648</v>
+        <v>221292</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7770744323946223</v>
+        <v>0.7770744323946224</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7340861459758062</v>
+        <v>0.7317959667356002</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8187737464029005</v>
+        <v>0.8174581532443191</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>325</v>
@@ -4116,19 +4116,19 @@
         <v>202946</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>192639</v>
+        <v>193338</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>212177</v>
+        <v>213012</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7703784442748203</v>
+        <v>0.7703784442748202</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7312517184833526</v>
+        <v>0.7339061357233599</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8054177968820684</v>
+        <v>0.8085880590240964</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -4137,19 +4137,19 @@
         <v>413306</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>398216</v>
+        <v>396920</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>427293</v>
+        <v>427722</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7737720041031951</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7455207139592778</v>
+        <v>0.7430943813990101</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7999576341373205</v>
+        <v>0.8007608879836055</v>
       </c>
     </row>
     <row r="21">
@@ -4241,19 +4241,19 @@
         <v>67989</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52454</v>
+        <v>52677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86694</v>
+        <v>88937</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09457813420090731</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07296814916431126</v>
+        <v>0.07327794507130908</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1205978825888324</v>
+        <v>0.1237185731409336</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -4262,19 +4262,19 @@
         <v>101669</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>84894</v>
+        <v>86564</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>119413</v>
+        <v>122128</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1320338929456021</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1102494949621558</v>
+        <v>0.112417885627475</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1550779012556202</v>
+        <v>0.1586033675032826</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>192</v>
@@ -4283,19 +4283,19 @@
         <v>169658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>146374</v>
+        <v>144346</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>194063</v>
+        <v>193476</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1139494195450559</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09831122235182665</v>
+        <v>0.09694866660989787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.130340868731226</v>
+        <v>0.1299466542767689</v>
       </c>
     </row>
     <row r="23">
@@ -4312,19 +4312,19 @@
         <v>650879</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>632174</v>
+        <v>629931</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>666414</v>
+        <v>666191</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9054218657990927</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8794021174111676</v>
+        <v>0.8762814268590664</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9270318508356887</v>
+        <v>0.926722054928691</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>827</v>
@@ -4333,19 +4333,19 @@
         <v>668350</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>650606</v>
+        <v>647891</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>685125</v>
+        <v>683455</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8679661070543979</v>
+        <v>0.8679661070543978</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8449220987443796</v>
+        <v>0.8413966324967175</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8897505050378443</v>
+        <v>0.887582114372525</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1363</v>
@@ -4354,19 +4354,19 @@
         <v>1319229</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1294824</v>
+        <v>1295411</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1342513</v>
+        <v>1344541</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.886050580454944</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8696591312687737</v>
+        <v>0.870053345723231</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.901688777648173</v>
+        <v>0.9030513333901022</v>
       </c>
     </row>
     <row r="24">
@@ -4458,19 +4458,19 @@
         <v>174462</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>152930</v>
+        <v>154700</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>197193</v>
+        <v>199669</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2187875666384121</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.191785118757182</v>
+        <v>0.1940039276028388</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2472939108002705</v>
+        <v>0.2503988234060363</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>411</v>
@@ -4479,19 +4479,19 @@
         <v>283732</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>260886</v>
+        <v>258031</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>307833</v>
+        <v>307417</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3420388768229983</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3144984529108892</v>
+        <v>0.3110574660521868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3710932767155615</v>
+        <v>0.3705923680062925</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>616</v>
@@ -4500,19 +4500,19 @@
         <v>458194</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>423978</v>
+        <v>426060</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>490760</v>
+        <v>493013</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2816300661551533</v>
+        <v>0.2816300661551532</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2605991200564238</v>
+        <v>0.2618790788522329</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3016470933233534</v>
+        <v>0.3030317576319977</v>
       </c>
     </row>
     <row r="26">
@@ -4529,19 +4529,19 @@
         <v>622943</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>600212</v>
+        <v>597736</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>644475</v>
+        <v>642705</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7812124333615881</v>
+        <v>0.781212433361588</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7527060891997295</v>
+        <v>0.7496011765939636</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.808214881242818</v>
+        <v>0.805996072397161</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>649</v>
@@ -4550,19 +4550,19 @@
         <v>545798</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>521697</v>
+        <v>522113</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>568644</v>
+        <v>571499</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6579611231770016</v>
+        <v>0.6579611231770017</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6289067232844385</v>
+        <v>0.6294076319937074</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6855015470891108</v>
+        <v>0.6889425339478131</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1205</v>
@@ -4571,19 +4571,19 @@
         <v>1168741</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1136175</v>
+        <v>1133922</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1202957</v>
+        <v>1200875</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7183699338448467</v>
+        <v>0.7183699338448468</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6983529066766467</v>
+        <v>0.6969682423680021</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7394008799435762</v>
+        <v>0.7381209211477671</v>
       </c>
     </row>
     <row r="27">
@@ -4675,19 +4675,19 @@
         <v>471807</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>433583</v>
+        <v>434855</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>511478</v>
+        <v>512820</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1339677865919414</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1231141641721879</v>
+        <v>0.1234753428602749</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1452323958679781</v>
+        <v>0.1456134641083238</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1020</v>
@@ -4696,19 +4696,19 @@
         <v>641958</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>605434</v>
+        <v>605289</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>683941</v>
+        <v>682871</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.172907693320954</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1630702137096631</v>
+        <v>0.1630313437769726</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1842156193730836</v>
+        <v>0.1839276127373952</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1575</v>
@@ -4717,19 +4717,19 @@
         <v>1113764</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1060791</v>
+        <v>1059079</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1169709</v>
+        <v>1170712</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1539515686949145</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1466292581199869</v>
+        <v>0.1463926198690921</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1616845678838601</v>
+        <v>0.1618231883948152</v>
       </c>
     </row>
     <row r="29">
@@ -4746,19 +4746,19 @@
         <v>3049986</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3010315</v>
+        <v>3008973</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3088210</v>
+        <v>3086938</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.8660322134080586</v>
+        <v>0.8660322134080585</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.854767604132022</v>
+        <v>0.8543865358916766</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.8768858358278123</v>
+        <v>0.8765246571397253</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4304</v>
@@ -4767,19 +4767,19 @@
         <v>3070760</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3028777</v>
+        <v>3029847</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3107284</v>
+        <v>3107429</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8270923066790459</v>
+        <v>0.8270923066790461</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8157843806269164</v>
+        <v>0.8160723872626049</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8369297862903368</v>
+        <v>0.8369686562230279</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>7112</v>
@@ -4788,19 +4788,19 @@
         <v>6120747</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6064802</v>
+        <v>6063799</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6173720</v>
+        <v>6175432</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8460484313050853</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.8383154321161397</v>
+        <v>0.8381768116051848</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8533707418800128</v>
+        <v>0.8536073801309079</v>
       </c>
     </row>
     <row r="30">
